--- a/scan_history.xlsx
+++ b/scan_history.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39640" yWindow="680" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="39640" yWindow="680" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Scanning" sheetId="1" r:id="rId1"/>
+    <sheet name="Behavioral" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -49,16 +50,67 @@
   </si>
   <si>
     <t>4 Nocatch, mtloc, 4 Reg</t>
+  </si>
+  <si>
+    <t>10 Nocatch</t>
+  </si>
+  <si>
+    <t>Last two scans shorter</t>
+  </si>
+  <si>
+    <t>s304</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Paid?</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,14 +133,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,19 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="55" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,10 +502,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>42138</v>
       </c>
@@ -460,11 +521,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>42135</v>
       </c>
@@ -477,11 +538,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>42133</v>
       </c>
@@ -494,8 +555,86 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>42173</v>
+      </c>
+      <c r="B5">
+        <v>9950</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>42200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/scan_history.xlsx
+++ b/scan_history.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39640" yWindow="680" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5680" yWindow="2120" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scanning" sheetId="1" r:id="rId1"/>
-    <sheet name="Behavioral" sheetId="2" r:id="rId2"/>
+    <sheet name="s300" sheetId="1" r:id="rId1"/>
+    <sheet name="s304" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -77,12 +77,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>Performance looks good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -138,11 +147,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -589,52 +599,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>42200</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/scan_history.xlsx
+++ b/scan_history.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5680" yWindow="2120" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="980" yWindow="2500" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="s300" sheetId="1" r:id="rId1"/>
     <sheet name="s304" sheetId="2" r:id="rId2"/>
+    <sheet name="s305" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +84,9 @@
   </si>
   <si>
     <t>Performance looks good</t>
+  </si>
+  <si>
+    <t>Added catch trial runs</t>
   </si>
 </sst>
 </file>
@@ -599,10 +603,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -662,6 +666,29 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>42201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -670,4 +697,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/scan_history.xlsx
+++ b/scan_history.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="2500" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="980" yWindow="2500" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="s300" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Added catch trial runs</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Very good training, motion looked phenomenal!</t>
   </si>
 </sst>
 </file>
@@ -146,8 +155,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -158,9 +169,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -691,6 +704,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -701,12 +715,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="47.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>42201</v>
+      </c>
+      <c r="C2">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/scan_history.xlsx
+++ b/scan_history.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="2500" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="580" yWindow="2180" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="s300" sheetId="1" r:id="rId1"/>
     <sheet name="s304" sheetId="2" r:id="rId2"/>
     <sheet name="s305" sheetId="3" r:id="rId3"/>
+    <sheet name="s308" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -68,9 +69,6 @@
     <t>Training</t>
   </si>
   <si>
-    <t>1 hour</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -92,18 +90,22 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>30 min</t>
-  </si>
-  <si>
     <t>Very good training, motion looked phenomenal!</t>
+  </si>
+  <si>
+    <t>End of training</t>
+  </si>
+  <si>
+    <t>Motion not so great, will need to train a lot on that. Asked to be paid every other session.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -155,25 +157,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -529,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -601,6 +609,17 @@
       </c>
       <c r="F5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>42117</v>
+      </c>
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -616,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -646,10 +665,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -666,17 +685,18 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="E2" s="5">
+        <v>60</v>
       </c>
       <c r="F2" s="4">
-        <v>10</v>
+        <f>20/60*E2</f>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -689,17 +709,42 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
+      <c r="E3" s="5">
+        <v>60</v>
       </c>
       <c r="F3" s="4">
-        <v>10</v>
+        <f t="shared" ref="F3:F4" si="0">20/60*E3</f>
+        <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>42206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5">
+        <v>90</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -717,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -743,10 +788,10 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -760,16 +805,91 @@
         <v>305</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6">
+        <f>20/60*E2</f>
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
-        <v>23</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="75.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>42207</v>
+      </c>
+      <c r="C2">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
       </c>
       <c r="F2">
+        <f>20/60*E2</f>
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
